--- a/data-raw/fieldplayers_overall_season_2013.xlsx
+++ b/data-raw/fieldplayers_overall_season_2013.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="14200" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -209,9 +209,6 @@
     <t>Stephanie Cox</t>
   </si>
   <si>
-    <t>Renae CuÃ©llar</t>
-  </si>
-  <si>
     <t>mx MEX</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
     <t>Vicki DiMartino</t>
   </si>
   <si>
-    <t>Maribel DomÃ­nguez</t>
-  </si>
-  <si>
     <t>Marian Dougherty</t>
   </si>
   <si>
@@ -500,9 +494,6 @@
     <t>Heather O'Reilly</t>
   </si>
   <si>
-    <t>MÃ³nica Ocampo</t>
-  </si>
-  <si>
     <t>Stephanie Ochs</t>
   </si>
   <si>
@@ -681,6 +672,15 @@
   </si>
   <si>
     <t>Emily Zurrer</t>
+  </si>
+  <si>
+    <t>Renae Cuéllar</t>
+  </si>
+  <si>
+    <t>Maribel Domínguez</t>
+  </si>
+  <si>
+    <t>Mónica Ocampo</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P186"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2334,10 +2334,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>25</v>
@@ -2382,10 +2382,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>25</v>
@@ -2432,7 +2432,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>17</v>
@@ -2480,10 +2480,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>25</v>
@@ -2528,7 +2528,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
@@ -2576,7 +2576,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
@@ -2624,10 +2624,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>25</v>
@@ -2674,7 +2674,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
@@ -2724,7 +2724,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
@@ -2774,7 +2774,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>17</v>
@@ -2824,10 +2824,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>41</v>
@@ -2872,7 +2872,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>17</v>
@@ -2922,7 +2922,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>17</v>
@@ -2972,7 +2972,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>17</v>
@@ -3022,10 +3022,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>41</v>
@@ -3070,10 +3070,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>48</v>
@@ -3118,7 +3118,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
@@ -3168,7 +3168,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
@@ -3218,7 +3218,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
@@ -3260,7 +3260,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
@@ -3308,7 +3308,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
@@ -3358,10 +3358,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>18</v>
@@ -3408,10 +3408,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>21</v>
@@ -3458,7 +3458,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>44</v>
@@ -3506,7 +3506,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
@@ -3556,7 +3556,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
@@ -3604,10 +3604,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>25</v>
@@ -3654,7 +3654,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
@@ -3700,7 +3700,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
@@ -3750,7 +3750,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
@@ -3800,7 +3800,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
@@ -3842,7 +3842,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
@@ -3892,7 +3892,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
@@ -3942,7 +3942,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
@@ -3992,7 +3992,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
@@ -4034,7 +4034,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
@@ -4080,7 +4080,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
@@ -4128,7 +4128,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
@@ -4178,7 +4178,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
@@ -4228,7 +4228,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
@@ -4278,7 +4278,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
@@ -4324,7 +4324,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
@@ -4372,10 +4372,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>18</v>
@@ -4418,7 +4418,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
@@ -4466,7 +4466,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
@@ -4508,7 +4508,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
@@ -4558,7 +4558,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
@@ -4608,7 +4608,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
@@ -4658,10 +4658,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>21</v>
@@ -4706,7 +4706,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
@@ -4754,7 +4754,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
@@ -4804,7 +4804,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
@@ -4852,7 +4852,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
@@ -4894,7 +4894,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
@@ -4942,7 +4942,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>44</v>
@@ -4990,7 +4990,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
@@ -5038,7 +5038,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>44</v>
@@ -5080,7 +5080,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>44</v>
@@ -5130,7 +5130,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>44</v>
@@ -5180,7 +5180,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
@@ -5230,7 +5230,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
@@ -5272,7 +5272,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
@@ -5320,7 +5320,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
@@ -5368,7 +5368,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
@@ -5416,7 +5416,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
@@ -5466,7 +5466,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
@@ -5516,7 +5516,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
@@ -5566,7 +5566,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
@@ -5616,7 +5616,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
@@ -5658,7 +5658,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
@@ -5706,7 +5706,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
@@ -5754,7 +5754,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
@@ -5804,7 +5804,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
@@ -5854,7 +5854,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>44</v>
@@ -5902,7 +5902,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
@@ -5952,7 +5952,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>17</v>
@@ -6002,7 +6002,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>44</v>
@@ -6048,7 +6048,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>17</v>
@@ -6096,7 +6096,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
@@ -6146,7 +6146,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
@@ -6194,7 +6194,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>44</v>
@@ -6236,7 +6236,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
@@ -6286,7 +6286,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
@@ -6334,7 +6334,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
@@ -6384,7 +6384,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
@@ -6434,7 +6434,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
@@ -6482,7 +6482,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
@@ -6532,7 +6532,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>44</v>
@@ -6582,7 +6582,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>44</v>
@@ -6632,7 +6632,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
@@ -6674,7 +6674,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
@@ -6722,7 +6722,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
@@ -6770,7 +6770,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
@@ -6820,10 +6820,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>21</v>
@@ -6868,10 +6868,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>21</v>
@@ -6918,7 +6918,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>17</v>
@@ -6966,7 +6966,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
@@ -7016,7 +7016,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
@@ -7066,10 +7066,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>25</v>
@@ -7114,7 +7114,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
@@ -7162,7 +7162,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
@@ -7212,7 +7212,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
@@ -7260,7 +7260,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
@@ -7308,7 +7308,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -7352,7 +7352,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
@@ -7394,10 +7394,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>25</v>
@@ -7442,7 +7442,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
@@ -7490,7 +7490,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>44</v>
@@ -7540,7 +7540,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
@@ -7590,10 +7590,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>41</v>
@@ -7638,7 +7638,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
@@ -7686,7 +7686,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
@@ -7734,7 +7734,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -7780,7 +7780,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
@@ -7828,7 +7828,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>44</v>
@@ -7876,10 +7876,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>28</v>
@@ -7924,7 +7924,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
@@ -7970,7 +7970,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
@@ -8016,10 +8016,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>25</v>
@@ -8066,7 +8066,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>17</v>
@@ -8116,10 +8116,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>34</v>
@@ -8158,7 +8158,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>17</v>
@@ -8208,7 +8208,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>44</v>
@@ -8256,7 +8256,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>17</v>
@@ -8306,7 +8306,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>44</v>
@@ -8356,7 +8356,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>44</v>
@@ -8406,7 +8406,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>17</v>
@@ -8456,7 +8456,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>17</v>
@@ -8506,10 +8506,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>25</v>
@@ -8556,7 +8556,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>44</v>
@@ -8606,7 +8606,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
@@ -8656,7 +8656,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
@@ -8698,7 +8698,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>17</v>
@@ -8746,10 +8746,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>34</v>
@@ -8788,7 +8788,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>17</v>
@@ -8836,7 +8836,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>17</v>
@@ -8884,7 +8884,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>17</v>
@@ -8932,7 +8932,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>17</v>
@@ -8980,7 +8980,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>17</v>
@@ -9030,7 +9030,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>17</v>
@@ -9080,7 +9080,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>17</v>
@@ -9122,10 +9122,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>28</v>
@@ -9172,7 +9172,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>17</v>
@@ -9220,7 +9220,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>17</v>
@@ -9270,7 +9270,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>17</v>
@@ -9320,7 +9320,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>17</v>
@@ -9368,7 +9368,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>17</v>
@@ -9414,7 +9414,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>17</v>
@@ -9464,7 +9464,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>17</v>
@@ -9514,7 +9514,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>44</v>
@@ -9564,7 +9564,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>17</v>
@@ -9612,7 +9612,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>17</v>
@@ -9662,7 +9662,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>17</v>
@@ -9712,7 +9712,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>17</v>
@@ -9760,10 +9760,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>41</v>
@@ -9810,10 +9810,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>21</v>
@@ -9858,7 +9858,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>17</v>
@@ -9904,7 +9904,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>17</v>
@@ -9952,7 +9952,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>44</v>
